--- a/superExcelleration.xlsx
+++ b/superExcelleration.xlsx
@@ -14,6 +14,8 @@
   </sheets>
   <definedNames>
     <definedName name="Book1" localSheetId="3">Sheet4!$A$1:$A$10</definedName>
+    <definedName name="Otherstuff">Sheet4!$D$15:$D$24</definedName>
+    <definedName name="Stuff">Sheet4!$C$15:$C$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>2.302585093,10</t>
   </si>
@@ -62,6 +64,27 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>Otherstuff</t>
+  </si>
+  <si>
+    <t>&gt;2</t>
+  </si>
+  <si>
+    <t>Criterion</t>
+  </si>
+  <si>
+    <t>Foo</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -433,10 +456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -444,7 +467,7 @@
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +484,7 @@
         <v>10.000000000059542</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -478,7 +501,7 @@
         <v>8.9999999969740259</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -495,7 +518,7 @@
         <v>8.0000000025613129</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -512,7 +535,7 @@
         <v>6.9999999996128066</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -529,7 +552,7 @@
         <v>5.9999999986316706</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -546,7 +569,7 @@
         <v>4.999999997829498</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -563,7 +586,7 @@
         <v>3.9999999995204378</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -580,7 +603,7 @@
         <v>3.0000000009956711</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -597,7 +620,7 @@
         <v>2.0000000008801093</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -612,6 +635,207 @@
       <c r="E10">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <f>DCOUNT(C14:D24, , C25:C26)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <f>COUNT(Stuff,2)</f>
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f>IF(((C15=2)*(D15&lt;&gt;1)), (C15+D15), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>SUM(IF((C15:C24=2), C15,0)*C15:C24)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Stuff, "&gt;2")</f>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G24" si="3">IF(((C16=2)*(D16&lt;&gt;1)), (C16+D16), 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
